--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="408">
   <si>
     <t>id</t>
   </si>
@@ -3691,7 +3691,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -3768,265 +3768,474 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15">
         <v>26</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
         <v>14</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
         <v>13</v>
       </c>
-      <c r="C30">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
         <v>17</v>
       </c>
     </row>
@@ -4037,7 +4246,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4384,7 +4593,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4392,7 +4601,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4400,7 +4609,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4408,7 +4617,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4416,7 +4625,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4424,7 +4633,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4432,7 +4641,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4440,7 +4649,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4448,7 +4657,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4456,7 +4665,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4464,7 +4673,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4472,7 +4681,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4480,7 +4689,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4488,7 +4697,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4496,7 +4705,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4504,7 +4713,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4512,7 +4721,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4520,158 +4729,6 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
         <v>155</v>
       </c>
     </row>
